--- a/training.xlsx
+++ b/training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC62B947-6793-465E-8DD0-9C4081D6AA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C040A-B184-4D17-B5FB-27F404F1E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1031,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1057,427 +1057,421 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1768,237 +1762,237 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="118"/>
-    <col min="2" max="2" width="11.88671875" style="118" customWidth="1"/>
-    <col min="3" max="3" width="9" style="118"/>
-    <col min="4" max="4" width="37.6640625" style="118" customWidth="1"/>
-    <col min="5" max="5" width="57" style="118" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="118" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" style="118" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="118" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="118" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="118"/>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="11.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9" style="24"/>
+    <col min="4" max="4" width="37.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="57" style="24" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="117"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="119" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="117"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="117"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="117"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="117"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="120" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="123" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="117"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="117"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="117"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="117"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="133" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="152" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="117"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="148" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="152" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="117"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="148" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="149"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="117"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="148" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="149"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="117"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="C3:H6"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="C11:D14"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="C3:H6"/>
-    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2482,7 +2476,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,112 +2485,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="110"/>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="111"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="112"/>
-      <c r="B4" s="114" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="158" t="s">
+      <c r="E6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="100"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="100"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="100"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="100"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="100"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="101"/>
+      <c r="E12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2657,18 +2651,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="61" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -2676,57 +2670,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="65"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="85"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="65"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="66"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="64" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="84" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -2734,54 +2728,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="67"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="96"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="67"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="96"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="68"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="97"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="98"/>
+      <c r="E11" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -2792,13 +2786,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="49" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -2809,13 +2803,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -2824,13 +2818,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="49" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2841,17 +2835,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2907,18 +2901,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="75" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -2926,57 +2920,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="14"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="14"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="110"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="15"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="13" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="109" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -2984,54 +2978,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="47"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="112"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="47"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="112"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="48"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="113"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="4" t="s">
@@ -3042,13 +3036,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="49" t="s">
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4" t="s">
@@ -3059,13 +3053,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3074,13 +3068,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="49" t="s">
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3091,17 +3085,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3157,18 +3151,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="75" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3176,57 +3170,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="65"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="85"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="65"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="66"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="64" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="84" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3234,54 +3228,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="67"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="96"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="67"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="96"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="68"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="97"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -3292,13 +3286,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="39" t="s">
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -3309,13 +3303,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="39" t="s">
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3324,13 +3318,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="39" t="s">
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3341,17 +3335,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3408,18 +3402,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="61" t="s">
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="132" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3427,57 +3421,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="79"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="133"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="79"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="133"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="80"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="69" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="64" t="s">
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="84" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3485,54 +3479,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="67"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="96"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="67"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="96"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="68"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="97"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -3543,13 +3537,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="49" t="s">
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -3560,13 +3554,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3575,13 +3569,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="49" t="s">
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3592,17 +3586,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3658,18 +3652,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="75" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3677,57 +3671,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="65"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="85"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="65"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="66"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="69" t="s">
+      <c r="D7" s="143"/>
+      <c r="E7" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="78" t="s">
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="132" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3735,54 +3729,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="98"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="148"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="98"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="99"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="149"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="95" t="s">
+      <c r="D11" s="151"/>
+      <c r="E11" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="158"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3" t="s">
@@ -3793,13 +3787,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="95" t="s">
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="158"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
@@ -3810,13 +3804,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="95" t="s">
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3825,13 +3819,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95" t="s">
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="158"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3842,17 +3836,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C040A-B184-4D17-B5FB-27F404F1E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC668C9A-95B4-40CF-9622-906570931044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="219">
   <si>
     <t>B2A3G Gross Operation Surplus</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>Production</t>
+  </si>
+  <si>
+    <t>M72</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +824,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1069,9 +1078,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,18 +1093,106 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,104 +1208,47 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,9 +1294,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1290,29 +1324,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -1338,24 +1366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,27 +1435,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,6 +1460,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1762,237 +1772,237 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="11.88671875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9" style="24"/>
-    <col min="4" max="4" width="37.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="57" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="24" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="11.88671875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9" style="23"/>
+    <col min="4" max="4" width="37.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="57" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="38" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="38" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="23"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="29" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="29" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="29" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="29" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="23"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="C3:H6"/>
-    <mergeCell ref="B3:B6"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="C11:D14"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="C3:H6"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2473,129 +2483,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D44C05-4762-400C-AA21-BE87715EC332}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="16.77734375" customWidth="1"/>
+    <col min="2" max="6" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="20"/>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="70" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="13"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="68" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="14"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
+  <mergeCells count="4">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2651,18 +2828,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="81" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="94" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -2670,57 +2847,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="86"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="84" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="94" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -2728,54 +2905,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="96"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="105"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="96"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="105"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="97"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="106"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="103" t="s">
+      <c r="D11" s="74"/>
+      <c r="E11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -2786,13 +2963,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -2803,13 +2980,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="103" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -2818,13 +2995,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2835,17 +3012,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2901,18 +3078,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="106" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="116" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -2920,57 +3097,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="110"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="117"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="110"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="111"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="118"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="109" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="116" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -2978,54 +3155,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="112"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="119"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="112"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="119"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="113"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="120"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="103" t="s">
+      <c r="D11" s="108"/>
+      <c r="E11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="4" t="s">
@@ -3036,13 +3213,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4" t="s">
@@ -3053,13 +3230,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="103" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3068,13 +3245,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="103" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3085,17 +3262,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3151,18 +3328,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="106" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="94" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3170,57 +3347,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="86"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="84" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="94" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3228,54 +3405,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="96"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="105"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="96"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="105"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="97"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="106"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="120" t="s">
+      <c r="D11" s="108"/>
+      <c r="E11" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -3286,13 +3463,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="120" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -3303,13 +3480,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="120" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3318,13 +3495,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3335,17 +3512,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3402,18 +3579,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="81" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="133" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3421,57 +3598,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="133"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="134"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="133"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="134"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="135"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="114" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="84" t="s">
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="94" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3479,54 +3656,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="96"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="105"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="96"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="105"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="97"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="106"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="103" t="s">
+      <c r="D11" s="108"/>
+      <c r="E11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -3537,13 +3714,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -3554,13 +3731,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="103" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3569,13 +3746,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="103" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3586,17 +3763,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3652,18 +3829,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="106" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="94" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3671,57 +3848,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="86"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="114" t="s">
+      <c r="D7" s="153"/>
+      <c r="E7" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="132" t="s">
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="133" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3729,54 +3906,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="148"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="158"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="148"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="158"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="149"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="159"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="156" t="s">
+      <c r="D11" s="145"/>
+      <c r="E11" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="157"/>
-      <c r="G11" s="158"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3" t="s">
@@ -3787,13 +3964,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="156" t="s">
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="157"/>
-      <c r="G12" s="158"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
@@ -3804,13 +3981,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="156" t="s">
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="157"/>
-      <c r="G13" s="158"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3819,13 +3996,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156" t="s">
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="152"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3836,17 +4013,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC668C9A-95B4-40CF-9622-906570931044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56129E-AA7A-4E8C-A27F-0D36F91AB619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="225">
   <si>
     <t>B2A3G Gross Operation Surplus</t>
   </si>
@@ -705,6 +705,24 @@
   </si>
   <si>
     <t>M72</t>
+  </si>
+  <si>
+    <t>CPA_..</t>
+  </si>
+  <si>
+    <t>CPA_...</t>
+  </si>
+  <si>
+    <t>CPA_G, CPA_H</t>
+  </si>
+  <si>
+    <t>TTM</t>
+  </si>
+  <si>
+    <t>&lt;0</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1097,36 +1115,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1184,36 +1232,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,9 +1240,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,79 +1342,28 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,30 +1384,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,6 +1453,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1462,26 +1501,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1810,72 +1832,72 @@
     </row>
     <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="30" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="30" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="22"/>
@@ -1883,51 +1905,51 @@
     <row r="8" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="67"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="59" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25" t="s">
         <v>6</v>
@@ -1937,13 +1959,13 @@
     <row r="12" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="59" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
         <v>7</v>
@@ -1953,13 +1975,13 @@
     <row r="13" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="59" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="22"/>
@@ -1967,13 +1989,13 @@
     <row r="14" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="59" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="22"/>
@@ -1992,17 +2014,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="C3:H6"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="C11:D14"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="C3:H6"/>
-    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2483,15 +2505,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D44C05-4762-400C-AA21-BE87715EC332}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -2664,7 +2688,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>80</v>
@@ -2675,7 +2699,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="27" t="s">
         <v>213</v>
@@ -2686,7 +2710,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="27" t="s">
         <v>182</v>
@@ -2697,7 +2721,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="27" t="s">
         <v>19</v>
@@ -2708,7 +2732,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="27" t="s">
         <v>48</v>
@@ -2719,7 +2743,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="27" t="s">
         <v>54</v>
@@ -2730,7 +2754,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="27" t="s">
         <v>50</v>
@@ -2741,7 +2765,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2750,7 +2774,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2759,7 +2783,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2767,12 +2791,142 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A29" s="13"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="13"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
+      <c r="B31" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="161" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="13"/>
+      <c r="B34" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="161" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="161">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2828,18 +2982,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="91" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -2847,57 +3001,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="95"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="86"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="95"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="96"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="94" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="85" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -2905,54 +3059,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="105"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="97"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="105"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="106"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="98"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="79" t="s">
+      <c r="D11" s="99"/>
+      <c r="E11" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -2963,13 +3117,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="79" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -2980,13 +3134,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="79" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -2995,13 +3149,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3012,17 +3166,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3078,18 +3232,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="113" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="110" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3097,57 +3251,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="117"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="111"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="117"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="118"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="112"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="116" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="110" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3155,54 +3309,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="119"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="119"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="113"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="120"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="114"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="79" t="s">
+      <c r="D11" s="116"/>
+      <c r="E11" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="4" t="s">
@@ -3213,13 +3367,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="79" t="s">
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4" t="s">
@@ -3230,13 +3384,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="79" t="s">
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3245,13 +3399,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="79" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3262,17 +3416,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3328,18 +3482,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="113" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3347,57 +3501,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="95"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="86"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="95"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="96"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="94" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="85" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3405,49 +3559,49 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="105"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="97"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="105"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="106"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="98"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="121" t="s">
         <v>8</v>
       </c>
@@ -3463,8 +3617,8 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="121" t="s">
         <v>0</v>
       </c>
@@ -3480,8 +3634,8 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="121" t="s">
         <v>9</v>
       </c>
@@ -3495,8 +3649,8 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="121" t="s">
         <v>10</v>
       </c>
@@ -3512,17 +3666,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3587,7 +3741,7 @@
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
       <c r="H3" s="126"/>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="82" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="133" t="s">
@@ -3604,7 +3758,7 @@
       <c r="F4" s="128"/>
       <c r="G4" s="128"/>
       <c r="H4" s="129"/>
-      <c r="I4" s="92"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="134"/>
       <c r="K4" s="5"/>
     </row>
@@ -3617,7 +3771,7 @@
       <c r="F5" s="128"/>
       <c r="G5" s="128"/>
       <c r="H5" s="129"/>
-      <c r="I5" s="92"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="134"/>
       <c r="K5" s="5"/>
     </row>
@@ -3630,25 +3784,25 @@
       <c r="F6" s="131"/>
       <c r="G6" s="131"/>
       <c r="H6" s="132"/>
-      <c r="I6" s="92"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="135"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="107" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="115" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="136"/>
       <c r="G7" s="136"/>
       <c r="H7" s="137"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="94" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="85" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3656,54 +3810,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="138"/>
       <c r="F8" s="139"/>
       <c r="G8" s="139"/>
       <c r="H8" s="140"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="105"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="97"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="138"/>
       <c r="F9" s="139"/>
       <c r="G9" s="139"/>
       <c r="H9" s="140"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="105"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="90"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="141"/>
       <c r="F10" s="142"/>
       <c r="G10" s="142"/>
       <c r="H10" s="143"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="106"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="98"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="79" t="s">
+      <c r="D11" s="116"/>
+      <c r="E11" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -3714,13 +3868,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="79" t="s">
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -3731,13 +3885,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="79" t="s">
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3746,13 +3900,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="79" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3763,17 +3917,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3829,18 +3983,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="113" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3848,40 +4002,40 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="95"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="86"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="95"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="96"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3890,14 +4044,14 @@
       <c r="C7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="107" t="s">
+      <c r="D7" s="144"/>
+      <c r="E7" s="115" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="136"/>
       <c r="G7" s="136"/>
       <c r="H7" s="137"/>
-      <c r="I7" s="114"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="133" t="s">
         <v>5</v>
       </c>
@@ -3906,54 +4060,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="146"/>
       <c r="E8" s="138"/>
       <c r="F8" s="139"/>
       <c r="G8" s="139"/>
       <c r="H8" s="140"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="158"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="149"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
       <c r="E9" s="138"/>
       <c r="F9" s="139"/>
       <c r="G9" s="139"/>
       <c r="H9" s="140"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="158"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="149"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="157"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="141"/>
       <c r="F10" s="142"/>
       <c r="G10" s="142"/>
       <c r="H10" s="143"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="159"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="150"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="150" t="s">
+      <c r="D11" s="152"/>
+      <c r="E11" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="151"/>
-      <c r="G11" s="152"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="159"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3" t="s">
@@ -3964,13 +4118,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="150" t="s">
+      <c r="C12" s="153"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="159"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
@@ -3981,13 +4135,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="150" t="s">
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="152"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="159"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3996,13 +4150,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="150" t="s">
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="151"/>
-      <c r="G14" s="152"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -4013,17 +4167,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56129E-AA7A-4E8C-A27F-0D36F91AB619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F357FB-E03C-46BA-BC14-8310A2754543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
     <sheet name="P1" sheetId="12" r:id="rId2"/>
-    <sheet name="T0101" sheetId="2" r:id="rId3"/>
-    <sheet name="T0102" sheetId="3" r:id="rId4"/>
-    <sheet name="T0103" sheetId="4" r:id="rId5"/>
-    <sheet name="T1500" sheetId="5" r:id="rId6"/>
-    <sheet name="T1600" sheetId="6" r:id="rId7"/>
-    <sheet name="P1_ind" sheetId="7" r:id="rId8"/>
-    <sheet name="P1_prod" sheetId="8" r:id="rId9"/>
-    <sheet name="P1_use" sheetId="9" r:id="rId10"/>
-    <sheet name="P1_sector" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet5" sheetId="11" r:id="rId12"/>
+    <sheet name="P2" sheetId="13" r:id="rId3"/>
+    <sheet name="GVA_O" sheetId="14" r:id="rId4"/>
+    <sheet name="T0101" sheetId="2" r:id="rId5"/>
+    <sheet name="T0102" sheetId="3" r:id="rId6"/>
+    <sheet name="T0103" sheetId="4" r:id="rId7"/>
+    <sheet name="T1500" sheetId="5" r:id="rId8"/>
+    <sheet name="T1600" sheetId="6" r:id="rId9"/>
+    <sheet name="P1_ind" sheetId="7" r:id="rId10"/>
+    <sheet name="P1_prod" sheetId="8" r:id="rId11"/>
+    <sheet name="P1_use" sheetId="9" r:id="rId12"/>
+    <sheet name="P1_sector" sheetId="10" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="239">
   <si>
     <t>B2A3G Gross Operation Surplus</t>
   </si>
@@ -707,15 +709,6 @@
     <t>M72</t>
   </si>
   <si>
-    <t>CPA_..</t>
-  </si>
-  <si>
-    <t>CPA_...</t>
-  </si>
-  <si>
-    <t>CPA_G, CPA_H</t>
-  </si>
-  <si>
     <t>TTM</t>
   </si>
   <si>
@@ -723,6 +716,57 @@
   </si>
   <si>
     <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>D21X31</t>
+  </si>
+  <si>
+    <t>Intermediate Consumption</t>
+  </si>
+  <si>
+    <t>Gross Value Added</t>
+  </si>
+  <si>
+    <t>B1G A01</t>
+  </si>
+  <si>
+    <t>B1G …</t>
+  </si>
+  <si>
+    <t>B1GQ</t>
+  </si>
+  <si>
+    <t>B1G TOTAL</t>
+  </si>
+  <si>
+    <t>B1G U</t>
+  </si>
+  <si>
+    <t>P1 A01</t>
+  </si>
+  <si>
+    <t>P1 …</t>
+  </si>
+  <si>
+    <t>P1 U</t>
+  </si>
+  <si>
+    <t>P1 TOTAL</t>
+  </si>
+  <si>
+    <t>P2 A01</t>
+  </si>
+  <si>
+    <t>P2 …</t>
+  </si>
+  <si>
+    <t>P2 U</t>
+  </si>
+  <si>
+    <t>P2 TOTAL</t>
+  </si>
+  <si>
+    <t>CPA_TOTAL</t>
   </si>
 </sst>
 </file>
@@ -732,7 +776,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +844,12 @@
       <color theme="1"/>
       <name val="Garamond"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1058,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1115,18 +1165,103 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,95 +1277,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1240,6 +1291,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1285,9 +1363,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1318,29 +1393,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -1366,24 +1435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1453,27 +1504,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1501,8 +1531,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1832,72 +1891,72 @@
     </row>
     <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="39" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="42"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="42"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="43"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="31" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="22"/>
@@ -1905,51 +1964,51 @@
     <row r="8" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="40"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="68"/>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="68"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25" t="s">
         <v>6</v>
@@ -1959,13 +2018,13 @@
     <row r="12" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
         <v>7</v>
@@ -1975,13 +2034,13 @@
     <row r="13" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="22"/>
@@ -1989,13 +2048,13 @@
     <row r="14" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="30" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="22"/>
@@ -2014,17 +2073,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="C3:H6"/>
-    <mergeCell ref="B3:B6"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="C11:D14"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="C3:H6"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2032,6 +2091,2125 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7D252-E95D-4943-830F-AD7672753D30}">
+  <dimension ref="A1:Q71"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:W1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2263713</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>2021</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2263713</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2021</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2263713</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8">
+        <v>65073</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D13" si="0">C4/$C$14</f>
+        <v>2.8746135221205161E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>2021</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1879635.1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8">
+        <v>677895</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29946154834998961</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>2021</v>
+      </c>
+      <c r="I5" s="8">
+        <v>241765</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8">
+        <v>161483</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>7.1335456393986335E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>2021</v>
+      </c>
+      <c r="I6" s="8">
+        <v>157427.4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8">
+        <v>471115</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20811604651296345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>2021</v>
+      </c>
+      <c r="I7" s="8">
+        <v>142312.9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8">
+        <v>95896</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2362260586920691E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>2021</v>
+      </c>
+      <c r="I8" s="8">
+        <v>132745.60000000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8">
+        <v>82277</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6346038565842932E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>2021</v>
+      </c>
+      <c r="I9" s="8">
+        <v>131098</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8">
+        <v>156814</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9272915780401484E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>2021</v>
+      </c>
+      <c r="I10" s="8">
+        <v>99232</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8">
+        <v>181251</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>8.0068012155251125E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>2021</v>
+      </c>
+      <c r="I11" s="8">
+        <v>96885</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>296914</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13116238675132405</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>2021</v>
+      </c>
+      <c r="I12" s="8">
+        <v>91005.6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8">
+        <v>74995</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3129199682115182E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>2021</v>
+      </c>
+      <c r="I13" s="8">
+        <v>88449.600000000006</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2263713</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>2021</v>
+      </c>
+      <c r="I14" s="8">
+        <v>76933.2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>2021</v>
+      </c>
+      <c r="I15" s="8">
+        <v>68959</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>2021</v>
+      </c>
+      <c r="I16" s="8">
+        <v>68788.7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>2021</v>
+      </c>
+      <c r="I17" s="8">
+        <v>68588.399999999994</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>2021</v>
+      </c>
+      <c r="I18" s="8">
+        <v>60447</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>2021</v>
+      </c>
+      <c r="I19" s="8">
+        <v>57114.8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>2021</v>
+      </c>
+      <c r="I20" s="8">
+        <v>55583.1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>2021</v>
+      </c>
+      <c r="I21" s="8">
+        <v>55201.5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>2021</v>
+      </c>
+      <c r="I22" s="8">
+        <v>53418.3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>2021</v>
+      </c>
+      <c r="I23" s="8">
+        <v>47988.4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24">
+        <v>2021</v>
+      </c>
+      <c r="I24" s="8">
+        <v>45195.9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>2021</v>
+      </c>
+      <c r="I25" s="8">
+        <v>43082.400000000001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>2021</v>
+      </c>
+      <c r="I26" s="8">
+        <v>42385.7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <v>2021</v>
+      </c>
+      <c r="I27" s="8">
+        <v>39255.1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28">
+        <v>2021</v>
+      </c>
+      <c r="I28" s="8">
+        <v>37732.199999999997</v>
+      </c>
+      <c r="J28" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>2021</v>
+      </c>
+      <c r="I29" s="8">
+        <v>35387.800000000003</v>
+      </c>
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30">
+        <v>2021</v>
+      </c>
+      <c r="I30" s="8">
+        <v>31915.9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31">
+        <v>2021</v>
+      </c>
+      <c r="I31" s="8">
+        <v>31515.5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32">
+        <v>2021</v>
+      </c>
+      <c r="I32" s="8">
+        <v>30870.799999999999</v>
+      </c>
+      <c r="J32" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <v>2021</v>
+      </c>
+      <c r="I33" s="8">
+        <v>25896.7</v>
+      </c>
+      <c r="J33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34">
+        <v>2021</v>
+      </c>
+      <c r="I34" s="8">
+        <v>23673.4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>2021</v>
+      </c>
+      <c r="I35" s="8">
+        <v>23466.2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <v>2021</v>
+      </c>
+      <c r="I36" s="8">
+        <v>23117.200000000001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37">
+        <v>2021</v>
+      </c>
+      <c r="I37" s="8">
+        <v>22305.4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38">
+        <v>2021</v>
+      </c>
+      <c r="I38" s="8">
+        <v>22109.1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39">
+        <v>2021</v>
+      </c>
+      <c r="I39" s="8">
+        <v>20677.8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40">
+        <v>2021</v>
+      </c>
+      <c r="I40" s="8">
+        <v>20541.8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41">
+        <v>2021</v>
+      </c>
+      <c r="I41" s="8">
+        <v>19769.099999999999</v>
+      </c>
+      <c r="J41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42">
+        <v>2021</v>
+      </c>
+      <c r="I42" s="8">
+        <v>18490.5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43">
+        <v>2021</v>
+      </c>
+      <c r="I43" s="8">
+        <v>18342.099999999999</v>
+      </c>
+      <c r="J43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44">
+        <v>2021</v>
+      </c>
+      <c r="I44" s="8">
+        <v>17944.099999999999</v>
+      </c>
+      <c r="J44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45">
+        <v>2021</v>
+      </c>
+      <c r="I45" s="8">
+        <v>17525</v>
+      </c>
+      <c r="J45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46">
+        <v>2021</v>
+      </c>
+      <c r="I46" s="8">
+        <v>17461.2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>2021</v>
+      </c>
+      <c r="I47" s="8">
+        <v>17033.599999999999</v>
+      </c>
+      <c r="J47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48">
+        <v>2021</v>
+      </c>
+      <c r="I48" s="8">
+        <v>16663.099999999999</v>
+      </c>
+      <c r="J48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49">
+        <v>2021</v>
+      </c>
+      <c r="I49" s="8">
+        <v>15799.6</v>
+      </c>
+      <c r="J49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50">
+        <v>2021</v>
+      </c>
+      <c r="I50" s="8">
+        <v>15111</v>
+      </c>
+      <c r="J50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51">
+        <v>2021</v>
+      </c>
+      <c r="I51" s="8">
+        <v>14732.4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52">
+        <v>2021</v>
+      </c>
+      <c r="I52" s="8">
+        <v>13592.6</v>
+      </c>
+      <c r="J52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53">
+        <v>2021</v>
+      </c>
+      <c r="I53" s="8">
+        <v>13219.5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54">
+        <v>2021</v>
+      </c>
+      <c r="I54" s="8">
+        <v>12910.5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55">
+        <v>2021</v>
+      </c>
+      <c r="I55" s="8">
+        <v>11921.1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56">
+        <v>2021</v>
+      </c>
+      <c r="I56" s="8">
+        <v>10676.3</v>
+      </c>
+      <c r="J56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57">
+        <v>2021</v>
+      </c>
+      <c r="I57" s="8">
+        <v>10525</v>
+      </c>
+      <c r="J57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58">
+        <v>2021</v>
+      </c>
+      <c r="I58" s="8">
+        <v>9622</v>
+      </c>
+      <c r="J58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59">
+        <v>2021</v>
+      </c>
+      <c r="I59" s="8">
+        <v>8670.9</v>
+      </c>
+      <c r="J59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60">
+        <v>2021</v>
+      </c>
+      <c r="I60" s="8">
+        <v>7714.3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>162</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61">
+        <v>2021</v>
+      </c>
+      <c r="I61" s="8">
+        <v>7092</v>
+      </c>
+      <c r="J61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62">
+        <v>2021</v>
+      </c>
+      <c r="I62" s="8">
+        <v>6881.6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63">
+        <v>2021</v>
+      </c>
+      <c r="I63" s="8">
+        <v>6478.4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64">
+        <v>2021</v>
+      </c>
+      <c r="I64" s="8">
+        <v>5331.2</v>
+      </c>
+      <c r="J64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65">
+        <v>2021</v>
+      </c>
+      <c r="I65" s="8">
+        <v>5130.8</v>
+      </c>
+      <c r="J65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66">
+        <v>2021</v>
+      </c>
+      <c r="I66" s="8">
+        <v>4352.6000000000004</v>
+      </c>
+      <c r="J66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>174</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67">
+        <v>2021</v>
+      </c>
+      <c r="I67" s="8">
+        <v>3754.7</v>
+      </c>
+      <c r="J67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68">
+        <v>2021</v>
+      </c>
+      <c r="I68" s="8">
+        <v>3147.7</v>
+      </c>
+      <c r="J68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69">
+        <v>2021</v>
+      </c>
+      <c r="I69" s="8">
+        <v>2860.7</v>
+      </c>
+      <c r="J69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>180</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70">
+        <v>2021</v>
+      </c>
+      <c r="I70" s="8">
+        <v>1964.9</v>
+      </c>
+      <c r="J70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71">
+        <v>2021</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F252E937-7F58-474C-BCC8-BAFC0F53BA97}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>161483</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>161483</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="10">
+        <v>157171.29999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>151308.20000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>4355.3999999999996</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4311.7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>1234.2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>688</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
+      </c>
+      <c r="D10">
+        <v>646.70000000000005</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11">
+        <v>496</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12">
+        <v>401.4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
+      </c>
+      <c r="D13">
+        <v>378.9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="D15">
+        <v>268.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>212</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>2021</v>
+      </c>
+      <c r="D17">
+        <v>194.7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>2021</v>
+      </c>
+      <c r="D18">
+        <v>167.8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>2021</v>
+      </c>
+      <c r="D19">
+        <v>150.9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>2021</v>
+      </c>
+      <c r="D20">
+        <v>145.6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="D21">
+        <v>122.8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2021</v>
+      </c>
+      <c r="D22">
+        <v>98.9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2021</v>
+      </c>
+      <c r="D23">
+        <v>94.9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="D24">
+        <v>40.6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>2021</v>
+      </c>
+      <c r="D25">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>2021</v>
+      </c>
+      <c r="D26">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>2021</v>
+      </c>
+      <c r="D27">
+        <v>32.4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>2021</v>
+      </c>
+      <c r="D28">
+        <v>30.9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>2021</v>
+      </c>
+      <c r="D29">
+        <v>22.8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>2021</v>
+      </c>
+      <c r="D30">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>2021</v>
+      </c>
+      <c r="D31">
+        <v>10.4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>2021</v>
+      </c>
+      <c r="D32">
+        <v>3.9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>2021</v>
+      </c>
+      <c r="D33">
+        <v>2.7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>2021</v>
+      </c>
+      <c r="D34">
+        <v>1.9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>2021</v>
+      </c>
+      <c r="D35">
+        <v>1.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>2021</v>
+      </c>
+      <c r="D36">
+        <v>1.3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06C9A24-8518-4D40-A20A-2749D6222B9F}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2222,7 +4400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F2190-E8AA-4BD1-B453-646E6C08557F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -2437,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20F49E9-524C-4C05-83F4-42FF63C3C7B5}">
   <dimension ref="A2:E5"/>
   <sheetViews>
@@ -2505,10 +4683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D44C05-4762-400C-AA21-BE87715EC332}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2516,6 +4694,7 @@
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="6" width="16.77734375" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -2544,23 +4723,23 @@
     <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -2650,23 +4829,23 @@
     <row r="14" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -2803,24 +4982,24 @@
     <row r="29" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
@@ -2842,53 +5021,53 @@
         <v>19</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="27" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="161" t="s">
-        <v>224</v>
+      <c r="G32" s="162" t="s">
+        <v>221</v>
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="27" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="29"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="161" t="s">
-        <v>223</v>
+      <c r="G33" s="162" t="s">
+        <v>220</v>
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="27" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="29"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="161" t="s">
-        <v>224</v>
+      <c r="G34" s="162" t="s">
+        <v>221</v>
       </c>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="27" t="s">
         <v>19</v>
@@ -2902,7 +5081,7 @@
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -2910,17 +5089,164 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="160"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="13"/>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A39" s="13"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="13"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="13"/>
+      <c r="B41" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="13"/>
+      <c r="B42" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="13"/>
+      <c r="B43" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="13"/>
+      <c r="B44" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="13"/>
+      <c r="B45" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="161">
+        <v>0</v>
+      </c>
+      <c r="H45" s="163"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C4:F4"/>
@@ -2933,6 +5259,377 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB5404A-72DF-4A4E-B6F3-F34AE2C547DC}">
+  <dimension ref="A2:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235B8648-5625-40D9-86F5-46783139AF55}">
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="164" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="164" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="164" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="13"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="164" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="164" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="164" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="164" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="164" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="164" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="164" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="164" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -2982,18 +5679,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="82" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="95" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3001,57 +5698,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="87"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="88" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="85" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="95" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3059,54 +5756,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="97"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="106"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="97"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="106"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="98"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="107"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="104" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -3117,13 +5814,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="104" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -3134,13 +5831,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="104" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3149,13 +5846,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3166,23 +5863,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -3232,18 +5929,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="107" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="110" t="s">
+      <c r="J3" s="117" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3251,57 +5948,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="111"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="118"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="111"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="118"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="112"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="119"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="88" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="110" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="117" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3309,54 +6006,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="113"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="113"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="120"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="114"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="121"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="104" t="s">
+      <c r="D11" s="109"/>
+      <c r="E11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="4" t="s">
@@ -3367,13 +6064,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="104" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4" t="s">
@@ -3384,13 +6081,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="104" t="s">
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3399,13 +6096,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="104" t="s">
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3416,23 +6113,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -3482,18 +6179,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="107" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="95" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3501,57 +6198,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="87"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="88" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="85" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="95" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3559,54 +6256,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="97"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="106"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="97"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="106"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="98"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="107"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="121" t="s">
+      <c r="D11" s="109"/>
+      <c r="E11" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -3617,13 +6314,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="122"/>
-      <c r="G12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -3634,13 +6331,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="121" t="s">
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3649,13 +6346,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121" t="s">
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3666,24 +6363,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -3733,18 +6430,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="82" t="s">
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="133" t="s">
+      <c r="J3" s="134" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -3752,57 +6449,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="134"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="135"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="134"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="135"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="135"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="136"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="115" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="85" t="s">
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="95" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -3810,54 +6507,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="97"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="106"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="97"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="106"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="98"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="107"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="104" t="s">
+      <c r="D11" s="109"/>
+      <c r="E11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -3868,13 +6565,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="104" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
@@ -3885,13 +6582,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="104" t="s">
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -3900,13 +6597,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="104" t="s">
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3917,23 +6614,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -3983,18 +6680,18 @@
     <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="107" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="95" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
@@ -4002,57 +6699,57 @@
     <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="87"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="115" t="s">
+      <c r="D7" s="154"/>
+      <c r="E7" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="133" t="s">
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="134" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
@@ -4060,54 +6757,54 @@
     <row r="8" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="149"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="149"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="159"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="150"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="160"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="152"/>
-      <c r="E11" s="157" t="s">
+      <c r="D11" s="146"/>
+      <c r="E11" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="158"/>
-      <c r="G11" s="159"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3" t="s">
@@ -4118,13 +6815,13 @@
     <row r="12" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="157" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="158"/>
-      <c r="G12" s="159"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="153"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
@@ -4135,13 +6832,13 @@
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="157" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="158"/>
-      <c r="G13" s="159"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="153"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
@@ -4150,13 +6847,13 @@
     <row r="14" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157" t="s">
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="158"/>
-      <c r="G14" s="159"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="153"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -4167,2137 +6864,18 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C3:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="C7:D10"/>
     <mergeCell ref="E7:H10"/>
     <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7D252-E95D-4943-830F-AD7672753D30}">
-  <dimension ref="A1:Q71"/>
-  <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:W1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>2021</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2263713</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>2021</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2263713</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>2021</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2263713</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8">
-        <v>65073</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D13" si="0">C4/$C$14</f>
-        <v>2.8746135221205161E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>2021</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1879635.1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8">
-        <v>677895</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0.29946154834998961</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>2021</v>
-      </c>
-      <c r="I5" s="8">
-        <v>241765</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="8">
-        <v>161483</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>7.1335456393986335E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>2021</v>
-      </c>
-      <c r="I6" s="8">
-        <v>157427.4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8">
-        <v>471115</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.20811604651296345</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7">
-        <v>2021</v>
-      </c>
-      <c r="I7" s="8">
-        <v>142312.9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="8">
-        <v>95896</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>4.2362260586920691E-2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>2021</v>
-      </c>
-      <c r="I8" s="8">
-        <v>132745.60000000001</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8">
-        <v>82277</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>3.6346038565842932E-2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>2021</v>
-      </c>
-      <c r="I9" s="8">
-        <v>131098</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="8">
-        <v>156814</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>6.9272915780401484E-2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>2021</v>
-      </c>
-      <c r="I10" s="8">
-        <v>99232</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8">
-        <v>181251</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>8.0068012155251125E-2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <v>2021</v>
-      </c>
-      <c r="I11" s="8">
-        <v>96885</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="8">
-        <v>296914</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.13116238675132405</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>2021</v>
-      </c>
-      <c r="I12" s="8">
-        <v>91005.6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8">
-        <v>74995</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>3.3129199682115182E-2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13">
-        <v>2021</v>
-      </c>
-      <c r="I13" s="8">
-        <v>88449.600000000006</v>
-      </c>
-      <c r="J13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2263713</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <v>2021</v>
-      </c>
-      <c r="I14" s="8">
-        <v>76933.2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15">
-        <v>2021</v>
-      </c>
-      <c r="I15" s="8">
-        <v>68959</v>
-      </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16">
-        <v>2021</v>
-      </c>
-      <c r="I16" s="8">
-        <v>68788.7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <v>2021</v>
-      </c>
-      <c r="I17" s="8">
-        <v>68588.399999999994</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18">
-        <v>2021</v>
-      </c>
-      <c r="I18" s="8">
-        <v>60447</v>
-      </c>
-      <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19">
-        <v>2021</v>
-      </c>
-      <c r="I19" s="8">
-        <v>57114.8</v>
-      </c>
-      <c r="J19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20">
-        <v>2021</v>
-      </c>
-      <c r="I20" s="8">
-        <v>55583.1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21">
-        <v>2021</v>
-      </c>
-      <c r="I21" s="8">
-        <v>55201.5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22">
-        <v>2021</v>
-      </c>
-      <c r="I22" s="8">
-        <v>53418.3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>2021</v>
-      </c>
-      <c r="I23" s="8">
-        <v>47988.4</v>
-      </c>
-      <c r="J23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24">
-        <v>2021</v>
-      </c>
-      <c r="I24" s="8">
-        <v>45195.9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <v>2021</v>
-      </c>
-      <c r="I25" s="8">
-        <v>43082.400000000001</v>
-      </c>
-      <c r="J25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26">
-        <v>2021</v>
-      </c>
-      <c r="I26" s="8">
-        <v>42385.7</v>
-      </c>
-      <c r="J26" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27">
-        <v>2021</v>
-      </c>
-      <c r="I27" s="8">
-        <v>39255.1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28">
-        <v>2021</v>
-      </c>
-      <c r="I28" s="8">
-        <v>37732.199999999997</v>
-      </c>
-      <c r="J28" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29">
-        <v>2021</v>
-      </c>
-      <c r="I29" s="8">
-        <v>35387.800000000003</v>
-      </c>
-      <c r="J29" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30">
-        <v>2021</v>
-      </c>
-      <c r="I30" s="8">
-        <v>31915.9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31">
-        <v>2021</v>
-      </c>
-      <c r="I31" s="8">
-        <v>31515.5</v>
-      </c>
-      <c r="J31" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32">
-        <v>2021</v>
-      </c>
-      <c r="I32" s="8">
-        <v>30870.799999999999</v>
-      </c>
-      <c r="J32" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33">
-        <v>2021</v>
-      </c>
-      <c r="I33" s="8">
-        <v>25896.7</v>
-      </c>
-      <c r="J33" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34">
-        <v>2021</v>
-      </c>
-      <c r="I34" s="8">
-        <v>23673.4</v>
-      </c>
-      <c r="J34" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35">
-        <v>2021</v>
-      </c>
-      <c r="I35" s="8">
-        <v>23466.2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36">
-        <v>2021</v>
-      </c>
-      <c r="I36" s="8">
-        <v>23117.200000000001</v>
-      </c>
-      <c r="J36" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37">
-        <v>2021</v>
-      </c>
-      <c r="I37" s="8">
-        <v>22305.4</v>
-      </c>
-      <c r="J37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38">
-        <v>2021</v>
-      </c>
-      <c r="I38" s="8">
-        <v>22109.1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39">
-        <v>2021</v>
-      </c>
-      <c r="I39" s="8">
-        <v>20677.8</v>
-      </c>
-      <c r="J39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40">
-        <v>2021</v>
-      </c>
-      <c r="I40" s="8">
-        <v>20541.8</v>
-      </c>
-      <c r="J40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F41" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41">
-        <v>2021</v>
-      </c>
-      <c r="I41" s="8">
-        <v>19769.099999999999</v>
-      </c>
-      <c r="J41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F42" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42">
-        <v>2021</v>
-      </c>
-      <c r="I42" s="8">
-        <v>18490.5</v>
-      </c>
-      <c r="J42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43">
-        <v>2021</v>
-      </c>
-      <c r="I43" s="8">
-        <v>18342.099999999999</v>
-      </c>
-      <c r="J43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F44" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44">
-        <v>2021</v>
-      </c>
-      <c r="I44" s="8">
-        <v>17944.099999999999</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45">
-        <v>2021</v>
-      </c>
-      <c r="I45" s="8">
-        <v>17525</v>
-      </c>
-      <c r="J45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46">
-        <v>2021</v>
-      </c>
-      <c r="I46" s="8">
-        <v>17461.2</v>
-      </c>
-      <c r="J46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47">
-        <v>2021</v>
-      </c>
-      <c r="I47" s="8">
-        <v>17033.599999999999</v>
-      </c>
-      <c r="J47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F48" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48">
-        <v>2021</v>
-      </c>
-      <c r="I48" s="8">
-        <v>16663.099999999999</v>
-      </c>
-      <c r="J48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F49" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49">
-        <v>2021</v>
-      </c>
-      <c r="I49" s="8">
-        <v>15799.6</v>
-      </c>
-      <c r="J49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F50" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50">
-        <v>2021</v>
-      </c>
-      <c r="I50" s="8">
-        <v>15111</v>
-      </c>
-      <c r="J50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F51" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51">
-        <v>2021</v>
-      </c>
-      <c r="I51" s="8">
-        <v>14732.4</v>
-      </c>
-      <c r="J51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52">
-        <v>2021</v>
-      </c>
-      <c r="I52" s="8">
-        <v>13592.6</v>
-      </c>
-      <c r="J52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F53" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53">
-        <v>2021</v>
-      </c>
-      <c r="I53" s="8">
-        <v>13219.5</v>
-      </c>
-      <c r="J53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F54" t="s">
-        <v>148</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54">
-        <v>2021</v>
-      </c>
-      <c r="I54" s="8">
-        <v>12910.5</v>
-      </c>
-      <c r="J54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55">
-        <v>2021</v>
-      </c>
-      <c r="I55" s="8">
-        <v>11921.1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56">
-        <v>2021</v>
-      </c>
-      <c r="I56" s="8">
-        <v>10676.3</v>
-      </c>
-      <c r="J56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F57" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57">
-        <v>2021</v>
-      </c>
-      <c r="I57" s="8">
-        <v>10525</v>
-      </c>
-      <c r="J57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F58" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58">
-        <v>2021</v>
-      </c>
-      <c r="I58" s="8">
-        <v>9622</v>
-      </c>
-      <c r="J58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F59" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59">
-        <v>2021</v>
-      </c>
-      <c r="I59" s="8">
-        <v>8670.9</v>
-      </c>
-      <c r="J59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F60" t="s">
-        <v>160</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60">
-        <v>2021</v>
-      </c>
-      <c r="I60" s="8">
-        <v>7714.3</v>
-      </c>
-      <c r="J60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F61" t="s">
-        <v>162</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61">
-        <v>2021</v>
-      </c>
-      <c r="I61" s="8">
-        <v>7092</v>
-      </c>
-      <c r="J61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F62" t="s">
-        <v>164</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62">
-        <v>2021</v>
-      </c>
-      <c r="I62" s="8">
-        <v>6881.6</v>
-      </c>
-      <c r="J62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F63" t="s">
-        <v>166</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63">
-        <v>2021</v>
-      </c>
-      <c r="I63" s="8">
-        <v>6478.4</v>
-      </c>
-      <c r="J63" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F64" t="s">
-        <v>168</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64">
-        <v>2021</v>
-      </c>
-      <c r="I64" s="8">
-        <v>5331.2</v>
-      </c>
-      <c r="J64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F65" t="s">
-        <v>170</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65">
-        <v>2021</v>
-      </c>
-      <c r="I65" s="8">
-        <v>5130.8</v>
-      </c>
-      <c r="J65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F66" t="s">
-        <v>172</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66">
-        <v>2021</v>
-      </c>
-      <c r="I66" s="8">
-        <v>4352.6000000000004</v>
-      </c>
-      <c r="J66" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F67" t="s">
-        <v>174</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67">
-        <v>2021</v>
-      </c>
-      <c r="I67" s="8">
-        <v>3754.7</v>
-      </c>
-      <c r="J67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68">
-        <v>2021</v>
-      </c>
-      <c r="I68" s="8">
-        <v>3147.7</v>
-      </c>
-      <c r="J68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F69" t="s">
-        <v>178</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69">
-        <v>2021</v>
-      </c>
-      <c r="I69" s="8">
-        <v>2860.7</v>
-      </c>
-      <c r="J69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F70" t="s">
-        <v>180</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70">
-        <v>2021</v>
-      </c>
-      <c r="I70" s="8">
-        <v>1964.9</v>
-      </c>
-      <c r="J70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71">
-        <v>2021</v>
-      </c>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F252E937-7F58-474C-BCC8-BAFC0F53BA97}">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>2021</v>
-      </c>
-      <c r="D2">
-        <v>161483</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-      <c r="D3">
-        <v>161483</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2021</v>
-      </c>
-      <c r="D4" s="10">
-        <v>157171.29999999999</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>2021</v>
-      </c>
-      <c r="D5">
-        <v>151308.20000000001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>2021</v>
-      </c>
-      <c r="D6">
-        <v>4355.3999999999996</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2021</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4311.7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>2021</v>
-      </c>
-      <c r="D8">
-        <v>1234.2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>2021</v>
-      </c>
-      <c r="D9">
-        <v>688</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>2021</v>
-      </c>
-      <c r="D10">
-        <v>646.70000000000005</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>2021</v>
-      </c>
-      <c r="D11">
-        <v>496</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>2021</v>
-      </c>
-      <c r="D12">
-        <v>401.4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>2021</v>
-      </c>
-      <c r="D13">
-        <v>378.9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>2021</v>
-      </c>
-      <c r="D14">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>2021</v>
-      </c>
-      <c r="D15">
-        <v>268.5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>2021</v>
-      </c>
-      <c r="D16">
-        <v>212</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>2021</v>
-      </c>
-      <c r="D17">
-        <v>194.7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>2021</v>
-      </c>
-      <c r="D18">
-        <v>167.8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>2021</v>
-      </c>
-      <c r="D19">
-        <v>150.9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>2021</v>
-      </c>
-      <c r="D20">
-        <v>145.6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>2021</v>
-      </c>
-      <c r="D21">
-        <v>122.8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>2021</v>
-      </c>
-      <c r="D22">
-        <v>98.9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>2021</v>
-      </c>
-      <c r="D23">
-        <v>94.9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>2021</v>
-      </c>
-      <c r="D24">
-        <v>40.6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>2021</v>
-      </c>
-      <c r="D25">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="E25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>2021</v>
-      </c>
-      <c r="D26">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>2021</v>
-      </c>
-      <c r="D27">
-        <v>32.4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <v>2021</v>
-      </c>
-      <c r="D28">
-        <v>30.9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29">
-        <v>2021</v>
-      </c>
-      <c r="D29">
-        <v>22.8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30">
-        <v>2021</v>
-      </c>
-      <c r="D30">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31">
-        <v>2021</v>
-      </c>
-      <c r="D31">
-        <v>10.4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32">
-        <v>2021</v>
-      </c>
-      <c r="D32">
-        <v>3.9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33">
-        <v>2021</v>
-      </c>
-      <c r="D33">
-        <v>2.7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34">
-        <v>2021</v>
-      </c>
-      <c r="D34">
-        <v>1.9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35">
-        <v>2021</v>
-      </c>
-      <c r="D35">
-        <v>1.5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>2021</v>
-      </c>
-      <c r="D36">
-        <v>1.3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>